--- a/New files/Cedars-Sinai Medical Network/10204890 - CSMN - 1101034 - IM - Wil Rob.xlsx
+++ b/New files/Cedars-Sinai Medical Network/10204890 - CSMN - 1101034 - IM - Wil Rob.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B15B38B-8024-4109-AF40-67188FF2296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C02F-6707-4520-BF4A-2B8A4D8F9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0718B2-84E7-4D6E-B7D5-110A992D0580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CCC13C46-F820-4547-B485-A527C3783E8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -962,20 +962,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F4EF0-D707-A290-3479-176990DEE483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C76880C-2956-096A-73DF-AB837180E6CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38856CC8-D2F4-4F58-930A-8AD630A3EAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DD21F-13C6-4AAC-978D-410AE057630D}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1336,12 +1336,12 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1692,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA134419-185D-4AED-9ACA-824EBCC55BB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC02065-B1DF-4363-A0FC-AEA7B2381DA8}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1710,10 +1710,10 @@
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>

--- a/New files/Cedars-Sinai Medical Network/10204890 - CSMN - 1101034 - IM - Wil Rob.xlsx
+++ b/New files/Cedars-Sinai Medical Network/10204890 - CSMN - 1101034 - IM - Wil Rob.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C02F-6707-4520-BF4A-2B8A4D8F9727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B37AC7D-C03E-4892-8905-C794B0F80152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CCC13C46-F820-4547-B485-A527C3783E8B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AF501D-2C15-4BA4-9D69-745FE1DEC075}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="183">
   <si>
     <t>Bill to</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Facility Name</t>
+    <t>Hospital System</t>
   </si>
   <si>
     <t>Date</t>
@@ -962,20 +962,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C76880C-2956-096A-73DF-AB837180E6CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16045D8E-8126-BF71-C459-9B6677A0C829}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6DD21F-13C6-4AAC-978D-410AE057630D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45EC57C-A160-4899-8288-1CB4232AA6A5}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1334,14 +1334,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1692,8 +1692,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC02065-B1DF-4363-A0FC-AEA7B2381DA8}">
-  <dimension ref="A1:Q151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC9AB0-E0B5-408A-9750-89CB768BFC05}">
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1709,16 +1709,15 @@
     <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
@@ -1750,28 +1749,25 @@
         <v>38</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1101034</v>
       </c>
@@ -1802,25 +1798,22 @@
       <c r="J2" s="33">
         <v>0</v>
       </c>
-      <c r="K2" s="33">
-        <v>8</v>
+      <c r="K2" s="30">
+        <v>0</v>
       </c>
       <c r="L2" s="30">
         <v>0</v>
       </c>
-      <c r="M2" s="30">
-        <v>0</v>
-      </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M2" s="33"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>1101034</v>
       </c>
@@ -1851,25 +1844,22 @@
       <c r="J3" s="33">
         <v>0</v>
       </c>
-      <c r="K3" s="33">
-        <v>1.65</v>
+      <c r="K3" s="30">
+        <v>0</v>
       </c>
       <c r="L3" s="30">
         <v>0</v>
       </c>
-      <c r="M3" s="30">
-        <v>0</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M3" s="33"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>1101034</v>
       </c>
@@ -1900,25 +1890,22 @@
       <c r="J4" s="33">
         <v>0</v>
       </c>
-      <c r="K4" s="33">
-        <v>2.35</v>
+      <c r="K4" s="30">
+        <v>0</v>
       </c>
       <c r="L4" s="30">
         <v>0</v>
       </c>
-      <c r="M4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M4" s="33"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>1101034</v>
       </c>
@@ -1949,25 +1936,22 @@
       <c r="J5" s="33">
         <v>0</v>
       </c>
-      <c r="K5" s="33">
-        <v>5.65</v>
+      <c r="K5" s="30">
+        <v>65</v>
       </c>
       <c r="L5" s="30">
-        <v>65</v>
-      </c>
-      <c r="M5" s="30">
         <v>367.25</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="33"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>1101034</v>
       </c>
@@ -1998,25 +1982,22 @@
       <c r="J6" s="33">
         <v>0</v>
       </c>
-      <c r="K6" s="33">
-        <v>2.17</v>
+      <c r="K6" s="30">
+        <v>65</v>
       </c>
       <c r="L6" s="30">
-        <v>65</v>
-      </c>
-      <c r="M6" s="30">
         <v>141.05000000000001</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M6" s="33"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>1101034</v>
       </c>
@@ -2047,25 +2028,22 @@
       <c r="J7" s="33">
         <v>0</v>
       </c>
-      <c r="K7" s="33">
-        <v>8</v>
+      <c r="K7" s="30">
+        <v>65</v>
       </c>
       <c r="L7" s="30">
-        <v>65</v>
-      </c>
-      <c r="M7" s="30">
         <v>520</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="33"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1101034</v>
       </c>
@@ -2096,25 +2074,22 @@
       <c r="J8" s="33">
         <v>0</v>
       </c>
-      <c r="K8" s="33">
-        <v>2.3199999999999998</v>
+      <c r="K8" s="30">
+        <v>65</v>
       </c>
       <c r="L8" s="30">
-        <v>65</v>
-      </c>
-      <c r="M8" s="30">
         <v>150.80000000000001</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M8" s="33"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>1101034</v>
       </c>
@@ -2145,25 +2120,22 @@
       <c r="J9" s="33">
         <v>0</v>
       </c>
-      <c r="K9" s="33">
-        <v>5.83</v>
+      <c r="K9" s="30">
+        <v>65</v>
       </c>
       <c r="L9" s="30">
-        <v>65</v>
-      </c>
-      <c r="M9" s="30">
         <v>378.95</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M9" s="33"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>1101034</v>
       </c>
@@ -2194,25 +2166,22 @@
       <c r="J10" s="33">
         <v>0</v>
       </c>
-      <c r="K10" s="33">
-        <v>8</v>
+      <c r="K10" s="30">
+        <v>65</v>
       </c>
       <c r="L10" s="30">
-        <v>65</v>
-      </c>
-      <c r="M10" s="30">
         <v>520</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M10" s="33"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>1101034</v>
       </c>
@@ -2243,25 +2212,22 @@
       <c r="J11" s="33">
         <v>0</v>
       </c>
-      <c r="K11" s="33">
-        <v>2.12</v>
+      <c r="K11" s="30">
+        <v>65</v>
       </c>
       <c r="L11" s="30">
-        <v>65</v>
-      </c>
-      <c r="M11" s="30">
         <v>137.80000000000001</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M11" s="33"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>1101034</v>
       </c>
@@ -2292,25 +2258,22 @@
       <c r="J12" s="33">
         <v>0</v>
       </c>
-      <c r="K12" s="33">
-        <v>8</v>
+      <c r="K12" s="30">
+        <v>65</v>
       </c>
       <c r="L12" s="30">
-        <v>65</v>
-      </c>
-      <c r="M12" s="30">
         <v>520</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M12" s="33"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>1101034</v>
       </c>
@@ -2341,25 +2304,22 @@
       <c r="J13" s="33">
         <v>0</v>
       </c>
-      <c r="K13" s="33">
-        <v>1.28</v>
+      <c r="K13" s="30">
+        <v>65</v>
       </c>
       <c r="L13" s="30">
-        <v>65</v>
-      </c>
-      <c r="M13" s="30">
         <v>83.2</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M13" s="33"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>1101034</v>
       </c>
@@ -2390,25 +2350,22 @@
       <c r="J14" s="33">
         <v>0</v>
       </c>
-      <c r="K14" s="33">
-        <v>8</v>
+      <c r="K14" s="30">
+        <v>65</v>
       </c>
       <c r="L14" s="30">
-        <v>65</v>
-      </c>
-      <c r="M14" s="30">
         <v>520</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M14" s="33"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>1101034</v>
       </c>
@@ -2439,25 +2396,22 @@
       <c r="J15" s="33">
         <v>0</v>
       </c>
-      <c r="K15" s="33">
-        <v>2</v>
+      <c r="K15" s="30">
+        <v>65</v>
       </c>
       <c r="L15" s="30">
-        <v>65</v>
-      </c>
-      <c r="M15" s="30">
         <v>130</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M15" s="33"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>1101034</v>
       </c>
@@ -2488,25 +2442,22 @@
       <c r="J16" s="33">
         <v>0</v>
       </c>
-      <c r="K16" s="33">
-        <v>8</v>
+      <c r="K16" s="30">
+        <v>65</v>
       </c>
       <c r="L16" s="30">
-        <v>65</v>
-      </c>
-      <c r="M16" s="30">
         <v>520</v>
       </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M16" s="33"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>1101034</v>
       </c>
@@ -2537,25 +2488,22 @@
       <c r="J17" s="33">
         <v>0</v>
       </c>
-      <c r="K17" s="33">
-        <v>2</v>
+      <c r="K17" s="30">
+        <v>65</v>
       </c>
       <c r="L17" s="30">
-        <v>65</v>
-      </c>
-      <c r="M17" s="30">
         <v>130</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M17" s="33"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>1101034</v>
       </c>
@@ -2586,25 +2534,22 @@
       <c r="J18" s="33">
         <v>0</v>
       </c>
-      <c r="K18" s="33">
-        <v>4.67</v>
+      <c r="K18" s="30">
+        <v>65</v>
       </c>
       <c r="L18" s="30">
-        <v>65</v>
-      </c>
-      <c r="M18" s="30">
         <v>303.55</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M18" s="33"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>1101034</v>
       </c>
@@ -2635,25 +2580,22 @@
       <c r="J19" s="33">
         <v>0</v>
       </c>
-      <c r="K19" s="33">
-        <v>8</v>
+      <c r="K19" s="30">
+        <v>65</v>
       </c>
       <c r="L19" s="30">
-        <v>65</v>
-      </c>
-      <c r="M19" s="30">
         <v>520</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M19" s="33"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>1101034</v>
       </c>
@@ -2684,25 +2626,22 @@
       <c r="J20" s="33">
         <v>0</v>
       </c>
-      <c r="K20" s="33">
-        <v>0.02</v>
+      <c r="K20" s="30">
+        <v>65</v>
       </c>
       <c r="L20" s="30">
-        <v>65</v>
-      </c>
-      <c r="M20" s="30">
         <v>1.3</v>
       </c>
-      <c r="N20" s="33"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M20" s="33"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>1101034</v>
       </c>
@@ -2733,25 +2672,22 @@
       <c r="J21" s="33">
         <v>0</v>
       </c>
-      <c r="K21" s="33">
-        <v>5.91</v>
+      <c r="K21" s="30">
+        <v>65</v>
       </c>
       <c r="L21" s="30">
-        <v>65</v>
-      </c>
-      <c r="M21" s="30">
         <v>384.15</v>
       </c>
-      <c r="N21" s="33"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M21" s="33"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>1101034</v>
       </c>
@@ -2782,25 +2718,22 @@
       <c r="J22" s="33">
         <v>0</v>
       </c>
-      <c r="K22" s="33">
-        <v>7.99</v>
+      <c r="K22" s="30">
+        <v>65</v>
       </c>
       <c r="L22" s="30">
-        <v>65</v>
-      </c>
-      <c r="M22" s="30">
         <v>519.35</v>
       </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M22" s="33"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>1101034</v>
       </c>
@@ -2831,25 +2764,22 @@
       <c r="J23" s="33">
         <v>0</v>
       </c>
-      <c r="K23" s="33">
-        <v>8</v>
+      <c r="K23" s="30">
+        <v>65</v>
       </c>
       <c r="L23" s="30">
-        <v>65</v>
-      </c>
-      <c r="M23" s="30">
         <v>520</v>
       </c>
-      <c r="N23" s="33"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M23" s="33"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1101034</v>
       </c>
@@ -2880,25 +2810,22 @@
       <c r="J24" s="33">
         <v>0</v>
       </c>
-      <c r="K24" s="33">
-        <v>8</v>
+      <c r="K24" s="30">
+        <v>65</v>
       </c>
       <c r="L24" s="30">
-        <v>65</v>
-      </c>
-      <c r="M24" s="30">
         <v>520</v>
       </c>
-      <c r="N24" s="33"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M24" s="33"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>1101034</v>
       </c>
@@ -2929,25 +2856,22 @@
       <c r="J25" s="33">
         <v>0</v>
       </c>
-      <c r="K25" s="33">
-        <v>0.05</v>
+      <c r="K25" s="30">
+        <v>65</v>
       </c>
       <c r="L25" s="30">
-        <v>65</v>
-      </c>
-      <c r="M25" s="30">
         <v>3.25</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M25" s="33"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>1101034</v>
       </c>
@@ -2978,25 +2902,22 @@
       <c r="J26" s="33">
         <v>0</v>
       </c>
-      <c r="K26" s="33">
-        <v>8</v>
+      <c r="K26" s="30">
+        <v>65</v>
       </c>
       <c r="L26" s="30">
-        <v>65</v>
-      </c>
-      <c r="M26" s="30">
         <v>520</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M26" s="33"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>1101034</v>
       </c>
@@ -3027,25 +2948,22 @@
       <c r="J27" s="33">
         <v>0</v>
       </c>
-      <c r="K27" s="33">
-        <v>0.03</v>
+      <c r="K27" s="30">
+        <v>65</v>
       </c>
       <c r="L27" s="30">
-        <v>65</v>
-      </c>
-      <c r="M27" s="30">
         <v>1.95</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M27" s="33"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>1101034</v>
       </c>
@@ -3076,25 +2994,22 @@
       <c r="J28" s="33">
         <v>0</v>
       </c>
-      <c r="K28" s="33">
-        <v>8</v>
+      <c r="K28" s="30">
+        <v>65</v>
       </c>
       <c r="L28" s="30">
-        <v>65</v>
-      </c>
-      <c r="M28" s="30">
         <v>520</v>
       </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M28" s="33"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>1101034</v>
       </c>
@@ -3125,25 +3040,22 @@
       <c r="J29" s="33">
         <v>0</v>
       </c>
-      <c r="K29" s="33">
-        <v>0.02</v>
+      <c r="K29" s="30">
+        <v>65</v>
       </c>
       <c r="L29" s="30">
-        <v>65</v>
-      </c>
-      <c r="M29" s="30">
         <v>1.3</v>
       </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M29" s="33"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>1101034</v>
       </c>
@@ -3174,25 +3086,22 @@
       <c r="J30" s="33">
         <v>0</v>
       </c>
-      <c r="K30" s="33">
-        <v>8</v>
+      <c r="K30" s="30">
+        <v>65</v>
       </c>
       <c r="L30" s="30">
-        <v>65</v>
-      </c>
-      <c r="M30" s="30">
         <v>520</v>
       </c>
-      <c r="N30" s="33"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M30" s="33"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>1101034</v>
       </c>
@@ -3223,25 +3132,22 @@
       <c r="J31" s="33">
         <v>0</v>
       </c>
-      <c r="K31" s="33">
-        <v>7.0000000000000007E-2</v>
+      <c r="K31" s="30">
+        <v>65</v>
       </c>
       <c r="L31" s="30">
-        <v>65</v>
-      </c>
-      <c r="M31" s="30">
         <v>4.55</v>
       </c>
-      <c r="N31" s="33"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M31" s="33"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>1101034</v>
       </c>
@@ -3272,25 +3178,22 @@
       <c r="J32" s="33">
         <v>0</v>
       </c>
-      <c r="K32" s="33">
-        <v>7.83</v>
+      <c r="K32" s="30">
+        <v>65</v>
       </c>
       <c r="L32" s="30">
-        <v>65</v>
-      </c>
-      <c r="M32" s="30">
         <v>508.95</v>
       </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M32" s="33"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>1101034</v>
       </c>
@@ -3321,25 +3224,22 @@
       <c r="J33" s="33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K33" s="33">
-        <v>0.14000000000000001</v>
+      <c r="K33" s="30">
+        <v>84.5</v>
       </c>
       <c r="L33" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M33" s="30">
         <v>11.83</v>
       </c>
-      <c r="N33" s="33"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="33"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>1101034</v>
       </c>
@@ -3370,25 +3270,22 @@
       <c r="J34" s="33">
         <v>0</v>
       </c>
-      <c r="K34" s="33">
-        <v>8</v>
+      <c r="K34" s="30">
+        <v>0</v>
       </c>
       <c r="L34" s="30">
         <v>0</v>
       </c>
-      <c r="M34" s="30">
-        <v>0</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M34" s="33"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>1101034</v>
       </c>
@@ -3419,25 +3316,22 @@
       <c r="J35" s="33">
         <v>0</v>
       </c>
-      <c r="K35" s="33">
-        <v>4</v>
+      <c r="K35" s="30">
+        <v>0</v>
       </c>
       <c r="L35" s="30">
         <v>0</v>
       </c>
-      <c r="M35" s="30">
-        <v>0</v>
-      </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M35" s="33"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>1101034</v>
       </c>
@@ -3468,25 +3362,22 @@
       <c r="J36" s="33">
         <v>0</v>
       </c>
-      <c r="K36" s="33">
-        <v>4</v>
+      <c r="K36" s="30">
+        <v>65</v>
       </c>
       <c r="L36" s="30">
-        <v>65</v>
-      </c>
-      <c r="M36" s="30">
         <v>260</v>
       </c>
-      <c r="N36" s="33"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M36" s="33"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>1101034</v>
       </c>
@@ -3517,25 +3408,22 @@
       <c r="J37" s="33">
         <v>0</v>
       </c>
-      <c r="K37" s="33">
-        <v>8</v>
+      <c r="K37" s="30">
+        <v>65</v>
       </c>
       <c r="L37" s="30">
-        <v>65</v>
-      </c>
-      <c r="M37" s="30">
         <v>520</v>
       </c>
-      <c r="N37" s="33"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M37" s="33"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>1101034</v>
       </c>
@@ -3566,25 +3454,22 @@
       <c r="J38" s="33">
         <v>0</v>
       </c>
-      <c r="K38" s="33">
-        <v>7.99</v>
+      <c r="K38" s="30">
+        <v>65</v>
       </c>
       <c r="L38" s="30">
-        <v>65</v>
-      </c>
-      <c r="M38" s="30">
         <v>519.35</v>
       </c>
-      <c r="N38" s="33"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M38" s="33"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>1101034</v>
       </c>
@@ -3615,25 +3500,22 @@
       <c r="J39" s="33">
         <v>0</v>
       </c>
-      <c r="K39" s="33">
-        <v>8.01</v>
+      <c r="K39" s="30">
+        <v>65</v>
       </c>
       <c r="L39" s="30">
-        <v>65</v>
-      </c>
-      <c r="M39" s="30">
         <v>520.65</v>
       </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M39" s="33"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>1101034</v>
       </c>
@@ -3664,25 +3546,22 @@
       <c r="J40" s="33">
         <v>0.06</v>
       </c>
-      <c r="K40" s="33">
-        <v>0.06</v>
+      <c r="K40" s="30">
+        <v>84.5</v>
       </c>
       <c r="L40" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M40" s="30">
         <v>5.07</v>
       </c>
-      <c r="N40" s="33"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M40" s="33"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>1101034</v>
       </c>
@@ -3713,25 +3592,22 @@
       <c r="J41" s="33">
         <v>0</v>
       </c>
-      <c r="K41" s="33">
-        <v>8</v>
+      <c r="K41" s="30">
+        <v>65</v>
       </c>
       <c r="L41" s="30">
-        <v>65</v>
-      </c>
-      <c r="M41" s="30">
         <v>520</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M41" s="33"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>1101034</v>
       </c>
@@ -3762,25 +3638,22 @@
       <c r="J42" s="33">
         <v>0</v>
       </c>
-      <c r="K42" s="33">
-        <v>0.08</v>
+      <c r="K42" s="30">
+        <v>65</v>
       </c>
       <c r="L42" s="30">
-        <v>65</v>
-      </c>
-      <c r="M42" s="30">
         <v>5.2</v>
       </c>
-      <c r="N42" s="33"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M42" s="33"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>1101034</v>
       </c>
@@ -3811,25 +3684,22 @@
       <c r="J43" s="33">
         <v>0</v>
       </c>
-      <c r="K43" s="33">
-        <v>8</v>
+      <c r="K43" s="30">
+        <v>65</v>
       </c>
       <c r="L43" s="30">
-        <v>65</v>
-      </c>
-      <c r="M43" s="30">
         <v>520</v>
       </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M43" s="33"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>1101034</v>
       </c>
@@ -3860,25 +3730,22 @@
       <c r="J44" s="33">
         <v>0</v>
       </c>
-      <c r="K44" s="33">
-        <v>0.1</v>
+      <c r="K44" s="30">
+        <v>65</v>
       </c>
       <c r="L44" s="30">
-        <v>65</v>
-      </c>
-      <c r="M44" s="30">
         <v>6.5</v>
       </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M44" s="33"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>1101034</v>
       </c>
@@ -3909,25 +3776,22 @@
       <c r="J45" s="33">
         <v>0</v>
       </c>
-      <c r="K45" s="33">
-        <v>8</v>
+      <c r="K45" s="30">
+        <v>65</v>
       </c>
       <c r="L45" s="30">
-        <v>65</v>
-      </c>
-      <c r="M45" s="30">
         <v>520</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M45" s="33"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>1101034</v>
       </c>
@@ -3958,25 +3822,22 @@
       <c r="J46" s="33">
         <v>0</v>
       </c>
-      <c r="K46" s="33">
-        <v>0.1</v>
+      <c r="K46" s="30">
+        <v>65</v>
       </c>
       <c r="L46" s="30">
-        <v>65</v>
-      </c>
-      <c r="M46" s="30">
         <v>6.5</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M46" s="33"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>1101034</v>
       </c>
@@ -4007,25 +3868,22 @@
       <c r="J47" s="33">
         <v>0</v>
       </c>
-      <c r="K47" s="33">
-        <v>8</v>
+      <c r="K47" s="30">
+        <v>65</v>
       </c>
       <c r="L47" s="30">
-        <v>65</v>
-      </c>
-      <c r="M47" s="30">
         <v>520</v>
       </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q47" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M47" s="33"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>1101034</v>
       </c>
@@ -4056,25 +3914,22 @@
       <c r="J48" s="33">
         <v>0</v>
       </c>
-      <c r="K48" s="33">
-        <v>0.03</v>
+      <c r="K48" s="30">
+        <v>65</v>
       </c>
       <c r="L48" s="30">
-        <v>65</v>
-      </c>
-      <c r="M48" s="30">
         <v>1.95</v>
       </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q48" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M48" s="33"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>1101034</v>
       </c>
@@ -4105,25 +3960,22 @@
       <c r="J49" s="33">
         <v>0</v>
       </c>
-      <c r="K49" s="33">
-        <v>7.69</v>
+      <c r="K49" s="30">
+        <v>65</v>
       </c>
       <c r="L49" s="30">
-        <v>65</v>
-      </c>
-      <c r="M49" s="30">
         <v>499.85</v>
       </c>
-      <c r="N49" s="33"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M49" s="33"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <v>1101034</v>
       </c>
@@ -4154,25 +4006,22 @@
       <c r="J50" s="33">
         <v>0.31</v>
       </c>
-      <c r="K50" s="33">
-        <v>0.31</v>
+      <c r="K50" s="30">
+        <v>84.5</v>
       </c>
       <c r="L50" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M50" s="30">
         <v>26.2</v>
       </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q50" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M50" s="33"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>1101034</v>
       </c>
@@ -4203,25 +4052,22 @@
       <c r="J51" s="33">
         <v>0.02</v>
       </c>
-      <c r="K51" s="33">
-        <v>0.02</v>
+      <c r="K51" s="30">
+        <v>84.5</v>
       </c>
       <c r="L51" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M51" s="30">
         <v>1.69</v>
       </c>
-      <c r="N51" s="33"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q51" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M51" s="33"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <v>1101034</v>
       </c>
@@ -4252,25 +4098,22 @@
       <c r="J52" s="33">
         <v>0</v>
       </c>
-      <c r="K52" s="33">
-        <v>8</v>
+      <c r="K52" s="30">
+        <v>65</v>
       </c>
       <c r="L52" s="30">
-        <v>65</v>
-      </c>
-      <c r="M52" s="30">
         <v>520</v>
       </c>
-      <c r="N52" s="33"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q52" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M52" s="33"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <v>1101034</v>
       </c>
@@ -4301,25 +4144,22 @@
       <c r="J53" s="33">
         <v>0</v>
       </c>
-      <c r="K53" s="33">
-        <v>8.0399999999999991</v>
+      <c r="K53" s="30">
+        <v>65</v>
       </c>
       <c r="L53" s="30">
-        <v>65</v>
-      </c>
-      <c r="M53" s="30">
         <v>522.6</v>
       </c>
-      <c r="N53" s="33"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q53" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M53" s="33"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <v>1101034</v>
       </c>
@@ -4350,25 +4190,22 @@
       <c r="J54" s="33">
         <v>0</v>
       </c>
-      <c r="K54" s="33">
-        <v>7.99</v>
+      <c r="K54" s="30">
+        <v>65</v>
       </c>
       <c r="L54" s="30">
-        <v>65</v>
-      </c>
-      <c r="M54" s="30">
         <v>519.35</v>
       </c>
-      <c r="N54" s="33"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q54" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M54" s="33"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>1101034</v>
       </c>
@@ -4399,25 +4236,22 @@
       <c r="J55" s="33">
         <v>0</v>
       </c>
-      <c r="K55" s="33">
-        <v>8.02</v>
+      <c r="K55" s="30">
+        <v>65</v>
       </c>
       <c r="L55" s="30">
-        <v>65</v>
-      </c>
-      <c r="M55" s="30">
         <v>521.29999999999995</v>
       </c>
-      <c r="N55" s="33"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q55" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M55" s="33"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <v>1101034</v>
       </c>
@@ -4448,25 +4282,22 @@
       <c r="J56" s="33">
         <v>0</v>
       </c>
-      <c r="K56" s="33">
-        <v>7.95</v>
+      <c r="K56" s="30">
+        <v>65</v>
       </c>
       <c r="L56" s="30">
-        <v>65</v>
-      </c>
-      <c r="M56" s="30">
         <v>516.75</v>
       </c>
-      <c r="N56" s="33"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q56" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M56" s="33"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
         <v>1101034</v>
       </c>
@@ -4497,25 +4328,22 @@
       <c r="J57" s="33">
         <v>0.05</v>
       </c>
-      <c r="K57" s="33">
-        <v>0.05</v>
+      <c r="K57" s="30">
+        <v>84.5</v>
       </c>
       <c r="L57" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M57" s="30">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N57" s="33"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q57" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M57" s="33"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <v>1101034</v>
       </c>
@@ -4546,25 +4374,22 @@
       <c r="J58" s="33">
         <v>0</v>
       </c>
-      <c r="K58" s="33">
-        <v>8</v>
+      <c r="K58" s="30">
+        <v>65</v>
       </c>
       <c r="L58" s="30">
-        <v>65</v>
-      </c>
-      <c r="M58" s="30">
         <v>520</v>
       </c>
-      <c r="N58" s="33"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q58" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M58" s="33"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <v>1101034</v>
       </c>
@@ -4595,25 +4420,22 @@
       <c r="J59" s="33">
         <v>0</v>
       </c>
-      <c r="K59" s="33">
-        <v>0.38</v>
+      <c r="K59" s="30">
+        <v>65</v>
       </c>
       <c r="L59" s="30">
-        <v>65</v>
-      </c>
-      <c r="M59" s="30">
         <v>24.7</v>
       </c>
-      <c r="N59" s="33"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q59" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M59" s="33"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <v>1101034</v>
       </c>
@@ -4644,25 +4466,22 @@
       <c r="J60" s="33">
         <v>0</v>
       </c>
-      <c r="K60" s="33">
-        <v>8</v>
+      <c r="K60" s="30">
+        <v>65</v>
       </c>
       <c r="L60" s="30">
-        <v>65</v>
-      </c>
-      <c r="M60" s="30">
         <v>520</v>
       </c>
-      <c r="N60" s="33"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q60" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M60" s="33"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
         <v>1101034</v>
       </c>
@@ -4693,25 +4512,22 @@
       <c r="J61" s="33">
         <v>0</v>
       </c>
-      <c r="K61" s="33">
-        <v>8</v>
+      <c r="K61" s="30">
+        <v>65</v>
       </c>
       <c r="L61" s="30">
-        <v>65</v>
-      </c>
-      <c r="M61" s="30">
         <v>520</v>
       </c>
-      <c r="N61" s="33"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q61" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M61" s="33"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
         <v>1101034</v>
       </c>
@@ -4742,25 +4558,22 @@
       <c r="J62" s="33">
         <v>0</v>
       </c>
-      <c r="K62" s="33">
-        <v>0.03</v>
+      <c r="K62" s="30">
+        <v>65</v>
       </c>
       <c r="L62" s="30">
-        <v>65</v>
-      </c>
-      <c r="M62" s="30">
         <v>1.95</v>
       </c>
-      <c r="N62" s="33"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q62" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M62" s="33"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
         <v>1101034</v>
       </c>
@@ -4791,25 +4604,22 @@
       <c r="J63" s="33">
         <v>0</v>
       </c>
-      <c r="K63" s="33">
-        <v>7.95</v>
+      <c r="K63" s="30">
+        <v>65</v>
       </c>
       <c r="L63" s="30">
-        <v>65</v>
-      </c>
-      <c r="M63" s="30">
         <v>516.75</v>
       </c>
-      <c r="N63" s="33"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q63" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M63" s="33"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
         <v>1101034</v>
       </c>
@@ -4840,25 +4650,22 @@
       <c r="J64" s="33">
         <v>0</v>
       </c>
-      <c r="K64" s="33">
-        <v>7.64</v>
+      <c r="K64" s="30">
+        <v>65</v>
       </c>
       <c r="L64" s="30">
-        <v>65</v>
-      </c>
-      <c r="M64" s="30">
         <v>496.6</v>
       </c>
-      <c r="N64" s="33"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q64" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M64" s="33"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
         <v>1101034</v>
       </c>
@@ -4889,25 +4696,22 @@
       <c r="J65" s="33">
         <v>0.36</v>
       </c>
-      <c r="K65" s="33">
-        <v>0.36</v>
+      <c r="K65" s="30">
+        <v>84.5</v>
       </c>
       <c r="L65" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M65" s="30">
         <v>30.42</v>
       </c>
-      <c r="N65" s="33"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q65" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M65" s="33"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P65" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
         <v>1101034</v>
       </c>
@@ -4938,25 +4742,22 @@
       <c r="J66" s="33">
         <v>0.02</v>
       </c>
-      <c r="K66" s="33">
-        <v>0.02</v>
+      <c r="K66" s="30">
+        <v>84.5</v>
       </c>
       <c r="L66" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M66" s="30">
         <v>1.69</v>
       </c>
-      <c r="N66" s="33"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q66" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M66" s="33"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="31">
         <v>1101034</v>
       </c>
@@ -4987,25 +4788,22 @@
       <c r="J67" s="33">
         <v>0</v>
       </c>
-      <c r="K67" s="33">
-        <v>7.98</v>
+      <c r="K67" s="30">
+        <v>40</v>
       </c>
       <c r="L67" s="30">
-        <v>40</v>
-      </c>
-      <c r="M67" s="30">
         <v>319.2</v>
       </c>
-      <c r="N67" s="33"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q67" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M67" s="33"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P67" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="31">
         <v>1101034</v>
       </c>
@@ -5036,25 +4834,22 @@
       <c r="J68" s="33">
         <v>0</v>
       </c>
-      <c r="K68" s="33">
-        <v>7.35</v>
+      <c r="K68" s="30">
+        <v>40</v>
       </c>
       <c r="L68" s="30">
-        <v>40</v>
-      </c>
-      <c r="M68" s="30">
         <v>294</v>
       </c>
-      <c r="N68" s="33"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q68" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M68" s="33"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
         <v>1101034</v>
       </c>
@@ -5085,25 +4880,22 @@
       <c r="J69" s="33">
         <v>0</v>
       </c>
-      <c r="K69" s="33">
-        <v>7.85</v>
+      <c r="K69" s="30">
+        <v>40</v>
       </c>
       <c r="L69" s="30">
-        <v>40</v>
-      </c>
-      <c r="M69" s="30">
         <v>314</v>
       </c>
-      <c r="N69" s="33"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q69" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M69" s="33"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P69" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
         <v>1101034</v>
       </c>
@@ -5134,25 +4926,22 @@
       <c r="J70" s="33">
         <v>0</v>
       </c>
-      <c r="K70" s="33">
-        <v>7.99</v>
+      <c r="K70" s="30">
+        <v>40</v>
       </c>
       <c r="L70" s="30">
-        <v>40</v>
-      </c>
-      <c r="M70" s="30">
         <v>319.60000000000002</v>
       </c>
-      <c r="N70" s="33"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q70" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M70" s="33"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
         <v>1101034</v>
       </c>
@@ -5183,25 +4972,22 @@
       <c r="J71" s="33">
         <v>0</v>
       </c>
-      <c r="K71" s="33">
-        <v>7.9</v>
+      <c r="K71" s="30">
+        <v>40</v>
       </c>
       <c r="L71" s="30">
-        <v>40</v>
-      </c>
-      <c r="M71" s="30">
         <v>316</v>
       </c>
-      <c r="N71" s="33"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q71" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M71" s="33"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
         <v>1101034</v>
       </c>
@@ -5232,25 +5018,22 @@
       <c r="J72" s="33">
         <v>0</v>
       </c>
-      <c r="K72" s="33">
-        <v>8</v>
+      <c r="K72" s="30">
+        <v>40</v>
       </c>
       <c r="L72" s="30">
-        <v>40</v>
-      </c>
-      <c r="M72" s="30">
         <v>320</v>
       </c>
-      <c r="N72" s="33"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q72" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M72" s="33"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P72" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
         <v>1101034</v>
       </c>
@@ -5281,25 +5064,22 @@
       <c r="J73" s="33">
         <v>0</v>
       </c>
-      <c r="K73" s="33">
-        <v>0.08</v>
+      <c r="K73" s="30">
+        <v>40</v>
       </c>
       <c r="L73" s="30">
-        <v>40</v>
-      </c>
-      <c r="M73" s="30">
         <v>3.2</v>
       </c>
-      <c r="N73" s="33"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q73" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M73" s="33"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P73" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>1101034</v>
       </c>
@@ -5330,25 +5110,22 @@
       <c r="J74" s="33">
         <v>0</v>
       </c>
-      <c r="K74" s="33">
-        <v>7.85</v>
+      <c r="K74" s="30">
+        <v>40</v>
       </c>
       <c r="L74" s="30">
-        <v>40</v>
-      </c>
-      <c r="M74" s="30">
         <v>314</v>
       </c>
-      <c r="N74" s="33"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q74" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M74" s="33"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P74" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
         <v>1101034</v>
       </c>
@@ -5379,25 +5156,22 @@
       <c r="J75" s="33">
         <v>0</v>
       </c>
-      <c r="K75" s="33">
-        <v>7.98</v>
+      <c r="K75" s="30">
+        <v>40</v>
       </c>
       <c r="L75" s="30">
-        <v>40</v>
-      </c>
-      <c r="M75" s="30">
         <v>319.2</v>
       </c>
-      <c r="N75" s="33"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q75" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M75" s="33"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P75" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
         <v>1101034</v>
       </c>
@@ -5428,25 +5202,22 @@
       <c r="J76" s="33">
         <v>0</v>
       </c>
-      <c r="K76" s="33">
-        <v>8</v>
+      <c r="K76" s="30">
+        <v>40</v>
       </c>
       <c r="L76" s="30">
-        <v>40</v>
-      </c>
-      <c r="M76" s="30">
         <v>320</v>
       </c>
-      <c r="N76" s="33"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q76" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M76" s="33"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
         <v>1101034</v>
       </c>
@@ -5477,25 +5248,22 @@
       <c r="J77" s="33">
         <v>0</v>
       </c>
-      <c r="K77" s="33">
-        <v>8</v>
+      <c r="K77" s="30">
+        <v>40</v>
       </c>
       <c r="L77" s="30">
-        <v>40</v>
-      </c>
-      <c r="M77" s="30">
         <v>320</v>
       </c>
-      <c r="N77" s="33"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q77" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M77" s="33"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
         <v>1101034</v>
       </c>
@@ -5526,25 +5294,22 @@
       <c r="J78" s="33">
         <v>0</v>
       </c>
-      <c r="K78" s="33">
-        <v>0.02</v>
+      <c r="K78" s="30">
+        <v>40</v>
       </c>
       <c r="L78" s="30">
-        <v>40</v>
-      </c>
-      <c r="M78" s="30">
         <v>0.8</v>
       </c>
-      <c r="N78" s="33"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q78" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M78" s="33"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>1101034</v>
       </c>
@@ -5575,25 +5340,22 @@
       <c r="J79" s="33">
         <v>0</v>
       </c>
-      <c r="K79" s="33">
-        <v>6.02</v>
+      <c r="K79" s="30">
+        <v>40</v>
       </c>
       <c r="L79" s="30">
-        <v>40</v>
-      </c>
-      <c r="M79" s="30">
         <v>240.8</v>
       </c>
-      <c r="N79" s="33"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q79" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M79" s="33"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
         <v>1101034</v>
       </c>
@@ -5624,25 +5386,22 @@
       <c r="J80" s="33">
         <v>0</v>
       </c>
-      <c r="K80" s="33">
-        <v>7.98</v>
+      <c r="K80" s="30">
+        <v>40</v>
       </c>
       <c r="L80" s="30">
-        <v>40</v>
-      </c>
-      <c r="M80" s="30">
         <v>319.2</v>
       </c>
-      <c r="N80" s="33"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q80" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M80" s="33"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>1101034</v>
       </c>
@@ -5673,25 +5432,22 @@
       <c r="J81" s="33">
         <v>0</v>
       </c>
-      <c r="K81" s="33">
-        <v>8</v>
+      <c r="K81" s="30">
+        <v>40</v>
       </c>
       <c r="L81" s="30">
-        <v>40</v>
-      </c>
-      <c r="M81" s="30">
         <v>320</v>
       </c>
-      <c r="N81" s="33"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q81" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M81" s="33"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
         <v>1101034</v>
       </c>
@@ -5722,25 +5478,22 @@
       <c r="J82" s="33">
         <v>0</v>
       </c>
-      <c r="K82" s="33">
-        <v>8</v>
+      <c r="K82" s="30">
+        <v>40</v>
       </c>
       <c r="L82" s="30">
-        <v>40</v>
-      </c>
-      <c r="M82" s="30">
         <v>320</v>
       </c>
-      <c r="N82" s="33"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q82" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M82" s="33"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>1101034</v>
       </c>
@@ -5771,25 +5524,22 @@
       <c r="J83" s="33">
         <v>0</v>
       </c>
-      <c r="K83" s="33">
-        <v>8</v>
+      <c r="K83" s="30">
+        <v>40</v>
       </c>
       <c r="L83" s="30">
-        <v>40</v>
-      </c>
-      <c r="M83" s="30">
         <v>320</v>
       </c>
-      <c r="N83" s="33"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q83" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M83" s="33"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
         <v>1101034</v>
       </c>
@@ -5820,25 +5570,22 @@
       <c r="J84" s="33">
         <v>0</v>
       </c>
-      <c r="K84" s="33">
-        <v>0.02</v>
+      <c r="K84" s="30">
+        <v>40</v>
       </c>
       <c r="L84" s="30">
-        <v>40</v>
-      </c>
-      <c r="M84" s="30">
         <v>0.8</v>
       </c>
-      <c r="N84" s="33"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q84" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M84" s="33"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="31">
         <v>1101034</v>
       </c>
@@ -5869,25 +5616,22 @@
       <c r="J85" s="33">
         <v>0</v>
       </c>
-      <c r="K85" s="33">
-        <v>9.85</v>
+      <c r="K85" s="30">
+        <v>65</v>
       </c>
       <c r="L85" s="30">
-        <v>65</v>
-      </c>
-      <c r="M85" s="30">
         <v>640.25</v>
       </c>
-      <c r="N85" s="33"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q85" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M85" s="33"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P85" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="31">
         <v>1101034</v>
       </c>
@@ -5918,25 +5662,22 @@
       <c r="J86" s="33">
         <v>0</v>
       </c>
-      <c r="K86" s="33">
-        <v>10.4</v>
+      <c r="K86" s="30">
+        <v>65</v>
       </c>
       <c r="L86" s="30">
-        <v>65</v>
-      </c>
-      <c r="M86" s="30">
         <v>676</v>
       </c>
-      <c r="N86" s="33"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q86" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M86" s="33"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P86" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="31">
         <v>1101034</v>
       </c>
@@ -5967,25 +5708,22 @@
       <c r="J87" s="33">
         <v>0</v>
       </c>
-      <c r="K87" s="33">
-        <v>6.13</v>
+      <c r="K87" s="30">
+        <v>65</v>
       </c>
       <c r="L87" s="30">
-        <v>65</v>
-      </c>
-      <c r="M87" s="30">
         <v>398.45</v>
       </c>
-      <c r="N87" s="33"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q87" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M87" s="33"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="31">
         <v>1101034</v>
       </c>
@@ -6016,25 +5754,22 @@
       <c r="J88" s="33">
         <v>0</v>
       </c>
-      <c r="K88" s="33">
-        <v>8</v>
+      <c r="K88" s="30">
+        <v>65</v>
       </c>
       <c r="L88" s="30">
-        <v>65</v>
-      </c>
-      <c r="M88" s="30">
         <v>520</v>
       </c>
-      <c r="N88" s="33"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q88" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M88" s="33"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="31">
         <v>1101034</v>
       </c>
@@ -6065,25 +5800,22 @@
       <c r="J89" s="33">
         <v>0</v>
       </c>
-      <c r="K89" s="33">
-        <v>1.9</v>
+      <c r="K89" s="30">
+        <v>65</v>
       </c>
       <c r="L89" s="30">
-        <v>65</v>
-      </c>
-      <c r="M89" s="30">
         <v>123.5</v>
       </c>
-      <c r="N89" s="33"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q89" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M89" s="33"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="31">
         <v>1101034</v>
       </c>
@@ -6114,25 +5846,22 @@
       <c r="J90" s="33">
         <v>0</v>
       </c>
-      <c r="K90" s="33">
-        <v>8</v>
+      <c r="K90" s="30">
+        <v>65</v>
       </c>
       <c r="L90" s="30">
-        <v>65</v>
-      </c>
-      <c r="M90" s="30">
         <v>520</v>
       </c>
-      <c r="N90" s="33"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q90" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M90" s="33"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="31">
         <v>1101034</v>
       </c>
@@ -6163,25 +5892,22 @@
       <c r="J91" s="33">
         <v>0</v>
       </c>
-      <c r="K91" s="33">
-        <v>1.73</v>
+      <c r="K91" s="30">
+        <v>65</v>
       </c>
       <c r="L91" s="30">
-        <v>65</v>
-      </c>
-      <c r="M91" s="30">
         <v>112.45</v>
       </c>
-      <c r="N91" s="33"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q91" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M91" s="33"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="31">
         <v>1101034</v>
       </c>
@@ -6212,25 +5938,22 @@
       <c r="J92" s="33">
         <v>0</v>
       </c>
-      <c r="K92" s="33">
-        <v>8</v>
+      <c r="K92" s="30">
+        <v>65</v>
       </c>
       <c r="L92" s="30">
-        <v>65</v>
-      </c>
-      <c r="M92" s="30">
         <v>520</v>
       </c>
-      <c r="N92" s="33"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q92" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M92" s="33"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="31">
         <v>1101034</v>
       </c>
@@ -6261,25 +5984,22 @@
       <c r="J93" s="33">
         <v>0</v>
       </c>
-      <c r="K93" s="33">
-        <v>1.95</v>
+      <c r="K93" s="30">
+        <v>65</v>
       </c>
       <c r="L93" s="30">
-        <v>65</v>
-      </c>
-      <c r="M93" s="30">
         <v>126.75</v>
       </c>
-      <c r="N93" s="33"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q93" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M93" s="33"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P93" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="31">
         <v>1101034</v>
       </c>
@@ -6310,25 +6030,22 @@
       <c r="J94" s="33">
         <v>0</v>
       </c>
-      <c r="K94" s="33">
-        <v>8</v>
+      <c r="K94" s="30">
+        <v>65</v>
       </c>
       <c r="L94" s="30">
-        <v>65</v>
-      </c>
-      <c r="M94" s="30">
         <v>520</v>
       </c>
-      <c r="N94" s="33"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q94" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M94" s="33"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="31">
         <v>1101034</v>
       </c>
@@ -6359,25 +6076,22 @@
       <c r="J95" s="33">
         <v>0</v>
       </c>
-      <c r="K95" s="33">
-        <v>1.38</v>
+      <c r="K95" s="30">
+        <v>65</v>
       </c>
       <c r="L95" s="30">
-        <v>65</v>
-      </c>
-      <c r="M95" s="30">
         <v>89.7</v>
       </c>
-      <c r="N95" s="33"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q95" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M95" s="33"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P95" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
         <v>1101034</v>
       </c>
@@ -6408,25 +6122,22 @@
       <c r="J96" s="33">
         <v>0</v>
       </c>
-      <c r="K96" s="33">
-        <v>8</v>
+      <c r="K96" s="30">
+        <v>65</v>
       </c>
       <c r="L96" s="30">
-        <v>65</v>
-      </c>
-      <c r="M96" s="30">
         <v>520</v>
       </c>
-      <c r="N96" s="33"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q96" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M96" s="33"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P96" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="31">
         <v>1101034</v>
       </c>
@@ -6457,25 +6168,22 @@
       <c r="J97" s="33">
         <v>0</v>
       </c>
-      <c r="K97" s="33">
-        <v>3.12</v>
+      <c r="K97" s="30">
+        <v>65</v>
       </c>
       <c r="L97" s="30">
-        <v>65</v>
-      </c>
-      <c r="M97" s="30">
         <v>202.8</v>
       </c>
-      <c r="N97" s="33"/>
-      <c r="O97" s="30"/>
-      <c r="P97" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q97" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M97" s="33"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P97" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="31">
         <v>1101034</v>
       </c>
@@ -6506,25 +6214,22 @@
       <c r="J98" s="33">
         <v>0</v>
       </c>
-      <c r="K98" s="33">
-        <v>8</v>
+      <c r="K98" s="30">
+        <v>65</v>
       </c>
       <c r="L98" s="30">
-        <v>65</v>
-      </c>
-      <c r="M98" s="30">
         <v>520</v>
       </c>
-      <c r="N98" s="33"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q98" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M98" s="33"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P98" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="31">
         <v>1101034</v>
       </c>
@@ -6555,25 +6260,22 @@
       <c r="J99" s="33">
         <v>0</v>
       </c>
-      <c r="K99" s="33">
-        <v>1.88</v>
+      <c r="K99" s="30">
+        <v>65</v>
       </c>
       <c r="L99" s="30">
-        <v>65</v>
-      </c>
-      <c r="M99" s="30">
         <v>122.2</v>
       </c>
-      <c r="N99" s="33"/>
-      <c r="O99" s="30"/>
-      <c r="P99" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q99" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M99" s="33"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P99" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="31">
         <v>1101034</v>
       </c>
@@ -6604,25 +6306,22 @@
       <c r="J100" s="33">
         <v>0</v>
       </c>
-      <c r="K100" s="33">
-        <v>8</v>
+      <c r="K100" s="30">
+        <v>65</v>
       </c>
       <c r="L100" s="30">
-        <v>65</v>
-      </c>
-      <c r="M100" s="30">
         <v>520</v>
       </c>
-      <c r="N100" s="33"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q100" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M100" s="33"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P100" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="31">
         <v>1101034</v>
       </c>
@@ -6653,25 +6352,22 @@
       <c r="J101" s="33">
         <v>0</v>
       </c>
-      <c r="K101" s="33">
-        <v>1.62</v>
+      <c r="K101" s="30">
+        <v>65</v>
       </c>
       <c r="L101" s="30">
-        <v>65</v>
-      </c>
-      <c r="M101" s="30">
         <v>105.3</v>
       </c>
-      <c r="N101" s="33"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q101" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M101" s="33"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P101" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="31">
         <v>1101034</v>
       </c>
@@ -6702,25 +6398,22 @@
       <c r="J102" s="33">
         <v>0.48</v>
       </c>
-      <c r="K102" s="33">
-        <v>0.48</v>
+      <c r="K102" s="30">
+        <v>84.5</v>
       </c>
       <c r="L102" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M102" s="30">
         <v>40.56</v>
       </c>
-      <c r="N102" s="33"/>
-      <c r="O102" s="30"/>
-      <c r="P102" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q102" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M102" s="33"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P102" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
         <v>1101034</v>
       </c>
@@ -6751,25 +6444,22 @@
       <c r="J103" s="33">
         <v>0</v>
       </c>
-      <c r="K103" s="33">
-        <v>5.5</v>
+      <c r="K103" s="30">
+        <v>65</v>
       </c>
       <c r="L103" s="30">
-        <v>65</v>
-      </c>
-      <c r="M103" s="30">
         <v>357.5</v>
       </c>
-      <c r="N103" s="33"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q103" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M103" s="33"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
         <v>1101034</v>
       </c>
@@ -6800,25 +6490,22 @@
       <c r="J104" s="33">
         <v>0</v>
       </c>
-      <c r="K104" s="33">
-        <v>8</v>
+      <c r="K104" s="30">
+        <v>65</v>
       </c>
       <c r="L104" s="30">
-        <v>65</v>
-      </c>
-      <c r="M104" s="30">
         <v>520</v>
       </c>
-      <c r="N104" s="33"/>
-      <c r="O104" s="30"/>
-      <c r="P104" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q104" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M104" s="33"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
         <v>1101034</v>
       </c>
@@ -6849,25 +6536,22 @@
       <c r="J105" s="33">
         <v>0</v>
       </c>
-      <c r="K105" s="33">
-        <v>1.93</v>
+      <c r="K105" s="30">
+        <v>65</v>
       </c>
       <c r="L105" s="30">
-        <v>65</v>
-      </c>
-      <c r="M105" s="30">
         <v>125.45</v>
       </c>
-      <c r="N105" s="33"/>
-      <c r="O105" s="30"/>
-      <c r="P105" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q105" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M105" s="33"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P105" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
         <v>1101034</v>
       </c>
@@ -6898,25 +6582,22 @@
       <c r="J106" s="33">
         <v>0</v>
       </c>
-      <c r="K106" s="33">
-        <v>8</v>
+      <c r="K106" s="30">
+        <v>0</v>
       </c>
       <c r="L106" s="30">
         <v>0</v>
       </c>
-      <c r="M106" s="30">
-        <v>0</v>
-      </c>
-      <c r="N106" s="33"/>
-      <c r="O106" s="30"/>
-      <c r="P106" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q106" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M106" s="33"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P106" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
         <v>1101034</v>
       </c>
@@ -6947,25 +6628,22 @@
       <c r="J107" s="33">
         <v>0</v>
       </c>
-      <c r="K107" s="33">
-        <v>4</v>
+      <c r="K107" s="30">
+        <v>0</v>
       </c>
       <c r="L107" s="30">
         <v>0</v>
       </c>
-      <c r="M107" s="30">
-        <v>0</v>
-      </c>
-      <c r="N107" s="33"/>
-      <c r="O107" s="30"/>
-      <c r="P107" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q107" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M107" s="33"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P107" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
         <v>1101034</v>
       </c>
@@ -6996,25 +6674,22 @@
       <c r="J108" s="33">
         <v>0</v>
       </c>
-      <c r="K108" s="33">
-        <v>4</v>
+      <c r="K108" s="30">
+        <v>40</v>
       </c>
       <c r="L108" s="30">
-        <v>40</v>
-      </c>
-      <c r="M108" s="30">
         <v>160</v>
       </c>
-      <c r="N108" s="33"/>
-      <c r="O108" s="30"/>
-      <c r="P108" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q108" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M108" s="33"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P108" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
         <v>1101034</v>
       </c>
@@ -7045,25 +6720,22 @@
       <c r="J109" s="33">
         <v>0</v>
       </c>
-      <c r="K109" s="33">
-        <v>8</v>
+      <c r="K109" s="30">
+        <v>40</v>
       </c>
       <c r="L109" s="30">
-        <v>40</v>
-      </c>
-      <c r="M109" s="30">
         <v>320</v>
       </c>
-      <c r="N109" s="33"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q109" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M109" s="33"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P109" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <v>1101034</v>
       </c>
@@ -7094,25 +6766,22 @@
       <c r="J110" s="33">
         <v>0</v>
       </c>
-      <c r="K110" s="33">
-        <v>8</v>
+      <c r="K110" s="30">
+        <v>40</v>
       </c>
       <c r="L110" s="30">
-        <v>40</v>
-      </c>
-      <c r="M110" s="30">
         <v>320</v>
       </c>
-      <c r="N110" s="33"/>
-      <c r="O110" s="30"/>
-      <c r="P110" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q110" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M110" s="33"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>1101034</v>
       </c>
@@ -7143,25 +6812,22 @@
       <c r="J111" s="33">
         <v>0</v>
       </c>
-      <c r="K111" s="33">
-        <v>8</v>
+      <c r="K111" s="30">
+        <v>40</v>
       </c>
       <c r="L111" s="30">
-        <v>40</v>
-      </c>
-      <c r="M111" s="30">
         <v>320</v>
       </c>
-      <c r="N111" s="33"/>
-      <c r="O111" s="30"/>
-      <c r="P111" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q111" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M111" s="33"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P111" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <v>1101034</v>
       </c>
@@ -7192,25 +6858,22 @@
       <c r="J112" s="33">
         <v>0</v>
       </c>
-      <c r="K112" s="33">
-        <v>10.47</v>
+      <c r="K112" s="30">
+        <v>0</v>
       </c>
       <c r="L112" s="30">
         <v>0</v>
       </c>
-      <c r="M112" s="30">
-        <v>0</v>
-      </c>
-      <c r="N112" s="33"/>
-      <c r="O112" s="30"/>
-      <c r="P112" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q112" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M112" s="33"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P112" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <v>1101034</v>
       </c>
@@ -7241,25 +6904,22 @@
       <c r="J113" s="33">
         <v>0</v>
       </c>
-      <c r="K113" s="33">
-        <v>1.53</v>
+      <c r="K113" s="30">
+        <v>0</v>
       </c>
       <c r="L113" s="30">
         <v>0</v>
       </c>
-      <c r="M113" s="30">
-        <v>0</v>
-      </c>
-      <c r="N113" s="33"/>
-      <c r="O113" s="30"/>
-      <c r="P113" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q113" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M113" s="33"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P113" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <v>1101034</v>
       </c>
@@ -7290,25 +6950,22 @@
       <c r="J114" s="33">
         <v>0</v>
       </c>
-      <c r="K114" s="33">
-        <v>8.57</v>
+      <c r="K114" s="30">
+        <v>65</v>
       </c>
       <c r="L114" s="30">
-        <v>65</v>
-      </c>
-      <c r="M114" s="30">
         <v>557.04999999999995</v>
       </c>
-      <c r="N114" s="33"/>
-      <c r="O114" s="30"/>
-      <c r="P114" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q114" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M114" s="33"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P114" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>1101034</v>
       </c>
@@ -7339,25 +6996,22 @@
       <c r="J115" s="33">
         <v>0</v>
       </c>
-      <c r="K115" s="33">
-        <v>10.25</v>
+      <c r="K115" s="30">
+        <v>65</v>
       </c>
       <c r="L115" s="30">
-        <v>65</v>
-      </c>
-      <c r="M115" s="30">
         <v>666.25</v>
       </c>
-      <c r="N115" s="33"/>
-      <c r="O115" s="30"/>
-      <c r="P115" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q115" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M115" s="33"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>1101034</v>
       </c>
@@ -7388,25 +7042,22 @@
       <c r="J116" s="33">
         <v>0</v>
       </c>
-      <c r="K116" s="33">
-        <v>8</v>
+      <c r="K116" s="30">
+        <v>65</v>
       </c>
       <c r="L116" s="30">
-        <v>65</v>
-      </c>
-      <c r="M116" s="30">
         <v>520</v>
       </c>
-      <c r="N116" s="33"/>
-      <c r="O116" s="30"/>
-      <c r="P116" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q116" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M116" s="33"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>1101034</v>
       </c>
@@ -7437,25 +7088,22 @@
       <c r="J117" s="33">
         <v>0</v>
       </c>
-      <c r="K117" s="33">
-        <v>1.88</v>
+      <c r="K117" s="30">
+        <v>65</v>
       </c>
       <c r="L117" s="30">
-        <v>65</v>
-      </c>
-      <c r="M117" s="30">
         <v>122.2</v>
       </c>
-      <c r="N117" s="33"/>
-      <c r="O117" s="30"/>
-      <c r="P117" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q117" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M117" s="33"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P117" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <v>1101034</v>
       </c>
@@ -7486,25 +7134,22 @@
       <c r="J118" s="33">
         <v>0</v>
       </c>
-      <c r="K118" s="33">
-        <v>8</v>
+      <c r="K118" s="30">
+        <v>65</v>
       </c>
       <c r="L118" s="30">
-        <v>65</v>
-      </c>
-      <c r="M118" s="30">
         <v>520</v>
       </c>
-      <c r="N118" s="33"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q118" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M118" s="33"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P118" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <v>1101034</v>
       </c>
@@ -7535,25 +7180,22 @@
       <c r="J119" s="33">
         <v>0</v>
       </c>
-      <c r="K119" s="33">
-        <v>1.48</v>
+      <c r="K119" s="30">
+        <v>65</v>
       </c>
       <c r="L119" s="30">
-        <v>65</v>
-      </c>
-      <c r="M119" s="30">
         <v>96.2</v>
       </c>
-      <c r="N119" s="33"/>
-      <c r="O119" s="30"/>
-      <c r="P119" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q119" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M119" s="33"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P119" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <v>1101034</v>
       </c>
@@ -7584,25 +7226,22 @@
       <c r="J120" s="33">
         <v>0</v>
       </c>
-      <c r="K120" s="33">
-        <v>8</v>
+      <c r="K120" s="30">
+        <v>65</v>
       </c>
       <c r="L120" s="30">
-        <v>65</v>
-      </c>
-      <c r="M120" s="30">
         <v>520</v>
       </c>
-      <c r="N120" s="33"/>
-      <c r="O120" s="30"/>
-      <c r="P120" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q120" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M120" s="33"/>
+      <c r="N120" s="30"/>
+      <c r="O120" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P120" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <v>1101034</v>
       </c>
@@ -7633,25 +7272,22 @@
       <c r="J121" s="33">
         <v>0</v>
       </c>
-      <c r="K121" s="33">
-        <v>8</v>
+      <c r="K121" s="30">
+        <v>65</v>
       </c>
       <c r="L121" s="30">
-        <v>65</v>
-      </c>
-      <c r="M121" s="30">
         <v>520</v>
       </c>
-      <c r="N121" s="33"/>
-      <c r="O121" s="30"/>
-      <c r="P121" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q121" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M121" s="33"/>
+      <c r="N121" s="30"/>
+      <c r="O121" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P121" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
         <v>1101034</v>
       </c>
@@ -7682,25 +7318,22 @@
       <c r="J122" s="33">
         <v>0</v>
       </c>
-      <c r="K122" s="33">
-        <v>2.5299999999999998</v>
+      <c r="K122" s="30">
+        <v>65</v>
       </c>
       <c r="L122" s="30">
-        <v>65</v>
-      </c>
-      <c r="M122" s="30">
         <v>164.45</v>
       </c>
-      <c r="N122" s="33"/>
-      <c r="O122" s="30"/>
-      <c r="P122" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q122" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M122" s="33"/>
+      <c r="N122" s="30"/>
+      <c r="O122" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P122" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
         <v>1101034</v>
       </c>
@@ -7731,25 +7364,22 @@
       <c r="J123" s="33">
         <v>0</v>
       </c>
-      <c r="K123" s="33">
-        <v>8</v>
+      <c r="K123" s="30">
+        <v>65</v>
       </c>
       <c r="L123" s="30">
-        <v>65</v>
-      </c>
-      <c r="M123" s="30">
         <v>520</v>
       </c>
-      <c r="N123" s="33"/>
-      <c r="O123" s="30"/>
-      <c r="P123" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q123" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M123" s="33"/>
+      <c r="N123" s="30"/>
+      <c r="O123" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P123" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <v>1101034</v>
       </c>
@@ -7780,25 +7410,22 @@
       <c r="J124" s="33">
         <v>0</v>
       </c>
-      <c r="K124" s="33">
-        <v>8.0500000000000007</v>
+      <c r="K124" s="30">
+        <v>65</v>
       </c>
       <c r="L124" s="30">
-        <v>65</v>
-      </c>
-      <c r="M124" s="30">
         <v>523.25</v>
       </c>
-      <c r="N124" s="33"/>
-      <c r="O124" s="30"/>
-      <c r="P124" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q124" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M124" s="33"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P124" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <v>1101034</v>
       </c>
@@ -7829,25 +7456,22 @@
       <c r="J125" s="33">
         <v>0</v>
       </c>
-      <c r="K125" s="33">
-        <v>8.25</v>
+      <c r="K125" s="30">
+        <v>65</v>
       </c>
       <c r="L125" s="30">
-        <v>65</v>
-      </c>
-      <c r="M125" s="30">
         <v>536.25</v>
       </c>
-      <c r="N125" s="33"/>
-      <c r="O125" s="30"/>
-      <c r="P125" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q125" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M125" s="33"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P125" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <v>1101034</v>
       </c>
@@ -7878,25 +7502,22 @@
       <c r="J126" s="33">
         <v>0</v>
       </c>
-      <c r="K126" s="33">
-        <v>8.02</v>
+      <c r="K126" s="30">
+        <v>65</v>
       </c>
       <c r="L126" s="30">
-        <v>65</v>
-      </c>
-      <c r="M126" s="30">
         <v>521.29999999999995</v>
       </c>
-      <c r="N126" s="33"/>
-      <c r="O126" s="30"/>
-      <c r="P126" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q126" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M126" s="33"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P126" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <v>1101034</v>
       </c>
@@ -7927,25 +7548,22 @@
       <c r="J127" s="33">
         <v>0</v>
       </c>
-      <c r="K127" s="33">
-        <v>7.68</v>
+      <c r="K127" s="30">
+        <v>65</v>
       </c>
       <c r="L127" s="30">
-        <v>65</v>
-      </c>
-      <c r="M127" s="30">
         <v>499.2</v>
       </c>
-      <c r="N127" s="33"/>
-      <c r="O127" s="30"/>
-      <c r="P127" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q127" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M127" s="33"/>
+      <c r="N127" s="30"/>
+      <c r="O127" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P127" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
         <v>1101034</v>
       </c>
@@ -7976,25 +7594,22 @@
       <c r="J128" s="33">
         <v>0.31</v>
       </c>
-      <c r="K128" s="33">
-        <v>0.31</v>
+      <c r="K128" s="30">
+        <v>84.5</v>
       </c>
       <c r="L128" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M128" s="30">
         <v>26.2</v>
       </c>
-      <c r="N128" s="33"/>
-      <c r="O128" s="30"/>
-      <c r="P128" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q128" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M128" s="33"/>
+      <c r="N128" s="30"/>
+      <c r="O128" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P128" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>1101034</v>
       </c>
@@ -8025,25 +7640,22 @@
       <c r="J129" s="33">
         <v>0</v>
       </c>
-      <c r="K129" s="33">
-        <v>8</v>
+      <c r="K129" s="30">
+        <v>65</v>
       </c>
       <c r="L129" s="30">
-        <v>65</v>
-      </c>
-      <c r="M129" s="30">
         <v>520</v>
       </c>
-      <c r="N129" s="33"/>
-      <c r="O129" s="30"/>
-      <c r="P129" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q129" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M129" s="33"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P129" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>1101034</v>
       </c>
@@ -8074,25 +7686,22 @@
       <c r="J130" s="33">
         <v>0</v>
       </c>
-      <c r="K130" s="33">
-        <v>8</v>
+      <c r="K130" s="30">
+        <v>65</v>
       </c>
       <c r="L130" s="30">
-        <v>65</v>
-      </c>
-      <c r="M130" s="30">
         <v>520</v>
       </c>
-      <c r="N130" s="33"/>
-      <c r="O130" s="30"/>
-      <c r="P130" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q130" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M130" s="33"/>
+      <c r="N130" s="30"/>
+      <c r="O130" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P130" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
         <v>1101034</v>
       </c>
@@ -8123,25 +7732,22 @@
       <c r="J131" s="33">
         <v>0</v>
       </c>
-      <c r="K131" s="33">
-        <v>0.05</v>
+      <c r="K131" s="30">
+        <v>65</v>
       </c>
       <c r="L131" s="30">
-        <v>65</v>
-      </c>
-      <c r="M131" s="30">
         <v>3.25</v>
       </c>
-      <c r="N131" s="33"/>
-      <c r="O131" s="30"/>
-      <c r="P131" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q131" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M131" s="33"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P131" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="31">
         <v>1101034</v>
       </c>
@@ -8172,25 +7778,22 @@
       <c r="J132" s="33">
         <v>0</v>
       </c>
-      <c r="K132" s="33">
-        <v>8</v>
+      <c r="K132" s="30">
+        <v>65</v>
       </c>
       <c r="L132" s="30">
-        <v>65</v>
-      </c>
-      <c r="M132" s="30">
         <v>520</v>
       </c>
-      <c r="N132" s="33"/>
-      <c r="O132" s="30"/>
-      <c r="P132" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q132" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M132" s="33"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P132" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
         <v>1101034</v>
       </c>
@@ -8221,25 +7824,22 @@
       <c r="J133" s="33">
         <v>0</v>
       </c>
-      <c r="K133" s="33">
-        <v>0.15</v>
+      <c r="K133" s="30">
+        <v>65</v>
       </c>
       <c r="L133" s="30">
-        <v>65</v>
-      </c>
-      <c r="M133" s="30">
         <v>9.75</v>
       </c>
-      <c r="N133" s="33"/>
-      <c r="O133" s="30"/>
-      <c r="P133" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q133" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M133" s="33"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P133" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
         <v>1101034</v>
       </c>
@@ -8270,25 +7870,22 @@
       <c r="J134" s="33">
         <v>0</v>
       </c>
-      <c r="K134" s="33">
-        <v>8</v>
+      <c r="K134" s="30">
+        <v>65</v>
       </c>
       <c r="L134" s="30">
-        <v>65</v>
-      </c>
-      <c r="M134" s="30">
         <v>520</v>
       </c>
-      <c r="N134" s="33"/>
-      <c r="O134" s="30"/>
-      <c r="P134" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q134" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M134" s="33"/>
+      <c r="N134" s="30"/>
+      <c r="O134" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P134" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
         <v>1101034</v>
       </c>
@@ -8319,25 +7916,22 @@
       <c r="J135" s="33">
         <v>0</v>
       </c>
-      <c r="K135" s="33">
-        <v>0.05</v>
+      <c r="K135" s="30">
+        <v>65</v>
       </c>
       <c r="L135" s="30">
-        <v>65</v>
-      </c>
-      <c r="M135" s="30">
         <v>3.25</v>
       </c>
-      <c r="N135" s="33"/>
-      <c r="O135" s="30"/>
-      <c r="P135" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q135" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M135" s="33"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P135" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
         <v>1101034</v>
       </c>
@@ -8368,25 +7962,22 @@
       <c r="J136" s="33">
         <v>0</v>
       </c>
-      <c r="K136" s="33">
-        <v>7.75</v>
+      <c r="K136" s="30">
+        <v>65</v>
       </c>
       <c r="L136" s="30">
-        <v>65</v>
-      </c>
-      <c r="M136" s="30">
         <v>503.75</v>
       </c>
-      <c r="N136" s="33"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q136" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M136" s="33"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P136" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
         <v>1101034</v>
       </c>
@@ -8417,25 +8008,22 @@
       <c r="J137" s="33">
         <v>0.25</v>
       </c>
-      <c r="K137" s="33">
-        <v>0.25</v>
+      <c r="K137" s="30">
+        <v>84.5</v>
       </c>
       <c r="L137" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M137" s="30">
         <v>21.13</v>
       </c>
-      <c r="N137" s="33"/>
-      <c r="O137" s="30"/>
-      <c r="P137" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q137" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M137" s="33"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P137" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="31">
         <v>1101034</v>
       </c>
@@ -8466,25 +8054,22 @@
       <c r="J138" s="33">
         <v>0.05</v>
       </c>
-      <c r="K138" s="33">
-        <v>0.05</v>
+      <c r="K138" s="30">
+        <v>84.5</v>
       </c>
       <c r="L138" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M138" s="30">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N138" s="33"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q138" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M138" s="33"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P138" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="31">
         <v>1101034</v>
       </c>
@@ -8515,25 +8100,22 @@
       <c r="J139" s="33">
         <v>0</v>
       </c>
-      <c r="K139" s="33">
-        <v>8</v>
+      <c r="K139" s="30">
+        <v>65</v>
       </c>
       <c r="L139" s="30">
-        <v>65</v>
-      </c>
-      <c r="M139" s="30">
         <v>520</v>
       </c>
-      <c r="N139" s="33"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q139" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M139" s="33"/>
+      <c r="N139" s="30"/>
+      <c r="O139" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P139" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
         <v>1101034</v>
       </c>
@@ -8564,25 +8146,22 @@
       <c r="J140" s="33">
         <v>0</v>
       </c>
-      <c r="K140" s="33">
-        <v>0.15</v>
+      <c r="K140" s="30">
+        <v>65</v>
       </c>
       <c r="L140" s="30">
-        <v>65</v>
-      </c>
-      <c r="M140" s="30">
         <v>9.75</v>
       </c>
-      <c r="N140" s="33"/>
-      <c r="O140" s="30"/>
-      <c r="P140" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q140" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M140" s="33"/>
+      <c r="N140" s="30"/>
+      <c r="O140" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P140" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
         <v>1101034</v>
       </c>
@@ -8613,25 +8192,22 @@
       <c r="J141" s="33">
         <v>0</v>
       </c>
-      <c r="K141" s="33">
-        <v>8</v>
+      <c r="K141" s="30">
+        <v>65</v>
       </c>
       <c r="L141" s="30">
-        <v>65</v>
-      </c>
-      <c r="M141" s="30">
         <v>520</v>
       </c>
-      <c r="N141" s="33"/>
-      <c r="O141" s="30"/>
-      <c r="P141" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q141" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M141" s="33"/>
+      <c r="N141" s="30"/>
+      <c r="O141" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P141" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
         <v>1101034</v>
       </c>
@@ -8662,25 +8238,22 @@
       <c r="J142" s="33">
         <v>0</v>
       </c>
-      <c r="K142" s="33">
-        <v>0.12</v>
+      <c r="K142" s="30">
+        <v>65</v>
       </c>
       <c r="L142" s="30">
-        <v>65</v>
-      </c>
-      <c r="M142" s="30">
         <v>7.8</v>
       </c>
-      <c r="N142" s="33"/>
-      <c r="O142" s="30"/>
-      <c r="P142" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q142" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M142" s="33"/>
+      <c r="N142" s="30"/>
+      <c r="O142" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P142" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
         <v>1101034</v>
       </c>
@@ -8711,25 +8284,22 @@
       <c r="J143" s="33">
         <v>0</v>
       </c>
-      <c r="K143" s="33">
-        <v>8</v>
+      <c r="K143" s="30">
+        <v>65</v>
       </c>
       <c r="L143" s="30">
-        <v>65</v>
-      </c>
-      <c r="M143" s="30">
         <v>520</v>
       </c>
-      <c r="N143" s="33"/>
-      <c r="O143" s="30"/>
-      <c r="P143" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q143" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M143" s="33"/>
+      <c r="N143" s="30"/>
+      <c r="O143" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P143" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="31">
         <v>1101034</v>
       </c>
@@ -8760,25 +8330,22 @@
       <c r="J144" s="33">
         <v>0</v>
       </c>
-      <c r="K144" s="33">
-        <v>0.06</v>
+      <c r="K144" s="30">
+        <v>65</v>
       </c>
       <c r="L144" s="30">
-        <v>65</v>
-      </c>
-      <c r="M144" s="30">
         <v>3.9</v>
       </c>
-      <c r="N144" s="33"/>
-      <c r="O144" s="30"/>
-      <c r="P144" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q144" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M144" s="33"/>
+      <c r="N144" s="30"/>
+      <c r="O144" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P144" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
         <v>1101034</v>
       </c>
@@ -8809,25 +8376,22 @@
       <c r="J145" s="33">
         <v>0</v>
       </c>
-      <c r="K145" s="33">
-        <v>7.75</v>
+      <c r="K145" s="30">
+        <v>65</v>
       </c>
       <c r="L145" s="30">
-        <v>65</v>
-      </c>
-      <c r="M145" s="30">
         <v>503.75</v>
       </c>
-      <c r="N145" s="33"/>
-      <c r="O145" s="30"/>
-      <c r="P145" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q145" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M145" s="33"/>
+      <c r="N145" s="30"/>
+      <c r="O145" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P145" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
         <v>1101034</v>
       </c>
@@ -8858,25 +8422,22 @@
       <c r="J146" s="33">
         <v>0</v>
       </c>
-      <c r="K146" s="33">
-        <v>7.92</v>
+      <c r="K146" s="30">
+        <v>65</v>
       </c>
       <c r="L146" s="30">
-        <v>65</v>
-      </c>
-      <c r="M146" s="30">
         <v>514.79999999999995</v>
       </c>
-      <c r="N146" s="33"/>
-      <c r="O146" s="30"/>
-      <c r="P146" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q146" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M146" s="33"/>
+      <c r="N146" s="30"/>
+      <c r="O146" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P146" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
         <v>1101034</v>
       </c>
@@ -8907,25 +8468,22 @@
       <c r="J147" s="33">
         <v>0.03</v>
       </c>
-      <c r="K147" s="33">
-        <v>0.03</v>
+      <c r="K147" s="30">
+        <v>84.5</v>
       </c>
       <c r="L147" s="30">
-        <v>84.5</v>
-      </c>
-      <c r="M147" s="30">
         <v>2.54</v>
       </c>
-      <c r="N147" s="33"/>
-      <c r="O147" s="30"/>
-      <c r="P147" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q147" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M147" s="33"/>
+      <c r="N147" s="30"/>
+      <c r="O147" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P147" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
         <v>1101034</v>
       </c>
@@ -8956,25 +8514,22 @@
       <c r="J148" s="33">
         <v>0</v>
       </c>
-      <c r="K148" s="33">
-        <v>7.98</v>
+      <c r="K148" s="30">
+        <v>65</v>
       </c>
       <c r="L148" s="30">
-        <v>65</v>
-      </c>
-      <c r="M148" s="30">
         <v>518.70000000000005</v>
       </c>
-      <c r="N148" s="33"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q148" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M148" s="33"/>
+      <c r="N148" s="30"/>
+      <c r="O148" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P148" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
         <v>1101034</v>
       </c>
@@ -9005,25 +8560,22 @@
       <c r="J149" s="33">
         <v>0</v>
       </c>
-      <c r="K149" s="33">
-        <v>8.23</v>
+      <c r="K149" s="30">
+        <v>65</v>
       </c>
       <c r="L149" s="30">
-        <v>65</v>
-      </c>
-      <c r="M149" s="30">
         <v>534.95000000000005</v>
       </c>
-      <c r="N149" s="33"/>
-      <c r="O149" s="30"/>
-      <c r="P149" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q149" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M149" s="33"/>
+      <c r="N149" s="30"/>
+      <c r="O149" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P149" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
         <v>1101034</v>
       </c>
@@ -9054,25 +8606,22 @@
       <c r="J150" s="33">
         <v>0</v>
       </c>
-      <c r="K150" s="33">
-        <v>8</v>
+      <c r="K150" s="30">
+        <v>65</v>
       </c>
       <c r="L150" s="30">
-        <v>65</v>
-      </c>
-      <c r="M150" s="30">
         <v>520</v>
       </c>
-      <c r="N150" s="33"/>
-      <c r="O150" s="30"/>
-      <c r="P150" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q150" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M150" s="33"/>
+      <c r="N150" s="30"/>
+      <c r="O150" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P150" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
         <v>1101034</v>
       </c>
@@ -9103,25 +8652,22 @@
       <c r="J151" s="33">
         <v>0</v>
       </c>
-      <c r="K151" s="33">
-        <v>0.08</v>
+      <c r="K151" s="30">
+        <v>65</v>
       </c>
       <c r="L151" s="30">
-        <v>65</v>
-      </c>
-      <c r="M151" s="30">
         <v>5.2</v>
       </c>
-      <c r="N151" s="33">
+      <c r="M151" s="33">
         <v>793.45</v>
       </c>
-      <c r="O151" s="30">
+      <c r="N151" s="30">
         <v>44869.34</v>
       </c>
-      <c r="P151" s="12">
-        <v>10204890</v>
-      </c>
-      <c r="Q151" s="12" t="s">
+      <c r="O151" s="12">
+        <v>10204890</v>
+      </c>
+      <c r="P151" s="12" t="s">
         <v>13</v>
       </c>
     </row>
